--- a/biology/Botanique/Eremopyrum/Eremopyrum.xlsx
+++ b/biology/Botanique/Eremopyrum/Eremopyrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremopyrum est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie et d'Afrique du Nord, qui comprend quatre espèces acceptées.
-Ce sont des plantes herbacées annuelles aux tiges dressées ou décombantes de 20 à 30 cm de long[2]. Les inflorescences sont des racèmes ou pseudo-épis très compacts.
-L'une des espèces du genre, Eremopyrum triticeum, s'est largement implantée dans certaines régions d'Amérique du Nord où elle est considérée comme une mauvaise herbe[3]
+Ce sont des plantes herbacées annuelles aux tiges dressées ou décombantes de 20 à 30 cm de long. Les inflorescences sont des racèmes ou pseudo-épis très compacts.
+L'une des espèces du genre, Eremopyrum triticeum, s'est largement implantée dans certaines régions d'Amérique du Nord où elle est considérée comme une mauvaise herbe
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (7 avril 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (7 avril 2017) :
 Eremopyrum bonaepartis (Spreng.) Nevski
 Eremopyrum distans (K.Koch) Nevski
 Eremopyrum orientale (L.) Jaub. &amp; Spach
